--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.2_KS_Holdout_seed_42/metrics/Trial_405__Reeval_Taguchi_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.2_KS_Holdout_seed_42/metrics/Trial_405__Reeval_Taguchi_Modell_1.2.xlsx
@@ -5417,97 +5417,97 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="90"/>
                 <c:pt idx="0">
-                  <c:v>-0.933052122592926</c:v>
+                  <c:v>-0.93305504322052</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.018648862838745</c:v>
+                  <c:v>-1.018645882606506</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>21.59004020690918</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.21832084655762</c:v>
+                  <c:v>17.21831703186035</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>92.77858734130859</c:v>
+                  <c:v>92.778564453125</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>64.50154876708984</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.001010417938232</c:v>
+                  <c:v>1.00101637840271</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.197942614555359</c:v>
+                  <c:v>1.197930812835693</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>90.38662719726562</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.1471556574106216</c:v>
+                  <c:v>0.1471497565507889</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>91.32731628417969</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.646917939186096</c:v>
+                  <c:v>1.646913528442383</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.3814323544502258</c:v>
+                  <c:v>-0.3814264535903931</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45.7209587097168</c:v>
+                  <c:v>45.72095108032227</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>91.96880340576172</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>81.71177673339844</c:v>
+                  <c:v>81.71176910400391</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>67.66965484619141</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>92.30422973632812</c:v>
+                  <c:v>92.30423736572266</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.125243216753006</c:v>
+                  <c:v>0.1252402663230896</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>99.0692138671875</c:v>
+                  <c:v>99.06922149658203</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>53.15880584716797</c:v>
+                  <c:v>53.15880966186523</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>93.20886993408203</c:v>
+                  <c:v>93.20887756347656</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.2413829863071442</c:v>
+                  <c:v>0.2413947731256485</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.3370860815048218</c:v>
+                  <c:v>0.3370919823646545</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.8814464211463928</c:v>
+                  <c:v>-0.8814449310302734</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.4181317985057831</c:v>
+                  <c:v>0.4181258976459503</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>-0.6214411854743958</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.05243050679564476</c:v>
+                  <c:v>-0.05243640020489693</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>81.08353424072266</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.09635849297046661</c:v>
+                  <c:v>0.09637027233839035</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>93.12825775146484</c:v>
+                  <c:v>93.12828063964844</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>95.48815155029297</c:v>
@@ -5516,31 +5516,31 @@
                   <c:v>0.4639361202716827</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>92.2080078125</c:v>
+                  <c:v>92.20801544189453</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-0.9822336435317993</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>91.72221374511719</c:v>
+                  <c:v>91.72222137451172</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.4202614724636078</c:v>
+                  <c:v>-0.420255571603775</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>85.20192718505859</c:v>
+                  <c:v>85.20191955566406</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>67.40812683105469</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>62.58417892456055</c:v>
+                  <c:v>62.58417129516602</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>91.97554779052734</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-0.2054553031921387</c:v>
+                  <c:v>-0.2054435163736343</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>87.26248931884766</c:v>
@@ -5549,31 +5549,31 @@
                   <c:v>95.67745208740234</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.4971980452537537</c:v>
+                  <c:v>0.4971921443939209</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-0.3334099650382996</c:v>
+                  <c:v>-0.3334158360958099</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>94.88972473144531</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.2109164744615555</c:v>
+                  <c:v>0.2109194248914719</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>0.5668913125991821</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>93.16983795166016</c:v>
+                  <c:v>93.16986083984375</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>83.21547698974609</c:v>
+                  <c:v>83.21548461914062</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>-0.2481844276189804</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>93.37924957275391</c:v>
+                  <c:v>93.37923431396484</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>89.66240692138672</c:v>
@@ -5582,28 +5582,28 @@
                   <c:v>90.93830108642578</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.1177259981632233</c:v>
+                  <c:v>0.1177201047539711</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>94.92179107666016</c:v>
+                  <c:v>94.92177581787109</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>93.17207336425781</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-0.4622630178928375</c:v>
+                  <c:v>-0.4622806906700134</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>92.72767639160156</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-0.4725402891635895</c:v>
+                  <c:v>-0.4725343883037567</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.01929526403546333</c:v>
+                  <c:v>0.01928200758993626</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>23.66497802734375</c:v>
+                  <c:v>23.66497993469238</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>0.07795427739620209</c:v>
@@ -5618,19 +5618,19 @@
                   <c:v>68.33563995361328</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.1960470080375671</c:v>
+                  <c:v>0.1960352212190628</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>95.76380920410156</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>99.68471527099609</c:v>
+                  <c:v>99.68470764160156</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>94.18979644775391</c:v>
+                  <c:v>94.18978881835938</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>87.68480682373047</c:v>
+                  <c:v>87.68482971191406</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>95.19459533691406</c:v>
@@ -5639,43 +5639,43 @@
                   <c:v>0.5358268618583679</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>95.11846923828125</c:v>
+                  <c:v>95.11847686767578</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>99.16670227050781</c:v>
+                  <c:v>99.16668701171875</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>81.34073638916016</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>88.00825500488281</c:v>
+                  <c:v>88.00826263427734</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>-0.3397194743156433</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>37.73877716064453</c:v>
+                  <c:v>37.73877334594727</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>94.42948150634766</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>63.48675155639648</c:v>
+                  <c:v>63.48676300048828</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-0.008785302750766277</c:v>
+                  <c:v>-0.008773519657552242</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-0.6109974980354309</c:v>
+                  <c:v>-0.6109886765480042</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>93.07621765136719</c:v>
+                  <c:v>93.07620239257812</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-0.1261062771081924</c:v>
+                  <c:v>-0.1261003911495209</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-1.194505095481873</c:v>
+                  <c:v>-1.194508075714111</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>97.05740356445312</c:v>
@@ -6379,7 +6379,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>-0.933052122592926</v>
+        <v>-0.93305504322052</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -6411,7 +6411,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>-1.018648862838745</v>
+        <v>-1.018645882606506</v>
       </c>
       <c r="G3">
         <v>103</v>
@@ -6475,7 +6475,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>17.21832084655762</v>
+        <v>17.21831703186035</v>
       </c>
       <c r="G5">
         <v>103</v>
@@ -6507,7 +6507,7 @@
         <v>93.8986</v>
       </c>
       <c r="F6">
-        <v>92.77858734130859</v>
+        <v>92.778564453125</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -6571,7 +6571,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.001010417938232</v>
+        <v>1.00101637840271</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -6591,7 +6591,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.197942614555359</v>
+        <v>1.197930812835693</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -6631,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.1471556574106216</v>
+        <v>0.1471497565507889</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -6671,7 +6671,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.646917939186096</v>
+        <v>1.646913528442383</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -6691,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>-0.3814323544502258</v>
+        <v>-0.3814264535903931</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -6711,7 +6711,7 @@
         <v>77.4808</v>
       </c>
       <c r="F15">
-        <v>45.7209587097168</v>
+        <v>45.72095108032227</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -6751,7 +6751,7 @@
         <v>80.1264</v>
       </c>
       <c r="F17">
-        <v>81.71177673339844</v>
+        <v>81.71176910400391</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6791,7 +6791,7 @@
         <v>95.6887</v>
       </c>
       <c r="F19">
-        <v>92.30422973632812</v>
+        <v>92.30423736572266</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6811,7 +6811,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.125243216753006</v>
+        <v>0.1252402663230896</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6831,7 +6831,7 @@
         <v>98.4349</v>
       </c>
       <c r="F21">
-        <v>99.0692138671875</v>
+        <v>99.06922149658203</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -6851,7 +6851,7 @@
         <v>33.6509</v>
       </c>
       <c r="F22">
-        <v>53.15880584716797</v>
+        <v>53.15880966186523</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6871,7 +6871,7 @@
         <v>93.91419999999999</v>
       </c>
       <c r="F23">
-        <v>93.20886993408203</v>
+        <v>93.20887756347656</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6891,7 +6891,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.2413829863071442</v>
+        <v>0.2413947731256485</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6911,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.3370860815048218</v>
+        <v>0.3370919823646545</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6931,7 +6931,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>-0.8814464211463928</v>
+        <v>-0.8814449310302734</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6951,7 +6951,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0.4181317985057831</v>
+        <v>0.4181258976459503</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -6991,7 +6991,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>-0.05243050679564476</v>
+        <v>-0.05243640020489693</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7031,7 +7031,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>0.09635849297046661</v>
+        <v>0.09637027233839035</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7051,7 +7051,7 @@
         <v>94.3853</v>
       </c>
       <c r="F32">
-        <v>93.12825775146484</v>
+        <v>93.12828063964844</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7111,7 +7111,7 @@
         <v>97.8249</v>
       </c>
       <c r="F35">
-        <v>92.2080078125</v>
+        <v>92.20801544189453</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7151,7 +7151,7 @@
         <v>93.1272</v>
       </c>
       <c r="F37">
-        <v>91.72221374511719</v>
+        <v>91.72222137451172</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>-0.4202614724636078</v>
+        <v>-0.420255571603775</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7191,7 +7191,7 @@
         <v>81.6122</v>
       </c>
       <c r="F39">
-        <v>85.20192718505859</v>
+        <v>85.20191955566406</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7231,7 +7231,7 @@
         <v>69.4635</v>
       </c>
       <c r="F41">
-        <v>62.58417892456055</v>
+        <v>62.58417129516602</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7271,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>-0.2054553031921387</v>
+        <v>-0.2054435163736343</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>0.4971980452537537</v>
+        <v>0.4971921443939209</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>-0.3334099650382996</v>
+        <v>-0.3334158360958099</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>0.2109164744615555</v>
+        <v>0.2109194248914719</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>95.00530000000001</v>
       </c>
       <c r="F51">
-        <v>93.16983795166016</v>
+        <v>93.16986083984375</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>81.8018</v>
       </c>
       <c r="F52">
-        <v>83.21547698974609</v>
+        <v>83.21548461914062</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>93.3826</v>
       </c>
       <c r="F54">
-        <v>93.37924957275391</v>
+        <v>93.37923431396484</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>0.1177259981632233</v>
+        <v>0.1177201047539711</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>98.0081</v>
       </c>
       <c r="F58">
-        <v>94.92179107666016</v>
+        <v>94.92177581787109</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>-0.4622630178928375</v>
+        <v>-0.4622806906700134</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>-0.4725402891635895</v>
+        <v>-0.4725343883037567</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>0.01929526403546333</v>
+        <v>0.01928200758993626</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>23.66497802734375</v>
+        <v>23.66497993469238</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>0.1960470080375671</v>
+        <v>0.1960352212190628</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>98.4734</v>
       </c>
       <c r="F71">
-        <v>99.68471527099609</v>
+        <v>99.68470764160156</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>98.3015</v>
       </c>
       <c r="F72">
-        <v>94.18979644775391</v>
+        <v>94.18978881835938</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>89.2407</v>
       </c>
       <c r="F73">
-        <v>87.68480682373047</v>
+        <v>87.68482971191406</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>94.8021</v>
       </c>
       <c r="F76">
-        <v>95.11846923828125</v>
+        <v>95.11847686767578</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>98.31310000000001</v>
       </c>
       <c r="F77">
-        <v>99.16670227050781</v>
+        <v>99.16668701171875</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>88.10899999999999</v>
       </c>
       <c r="F79">
-        <v>88.00825500488281</v>
+        <v>88.00826263427734</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>87.7663</v>
       </c>
       <c r="F81">
-        <v>37.73877716064453</v>
+        <v>37.73877334594727</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>61.4721</v>
       </c>
       <c r="F83">
-        <v>63.48675155639648</v>
+        <v>63.48676300048828</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>-0.008785302750766277</v>
+        <v>-0.008773519657552242</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>-0.6109974980354309</v>
+        <v>-0.6109886765480042</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>95.40600000000001</v>
       </c>
       <c r="F86">
-        <v>93.07621765136719</v>
+        <v>93.07620239257812</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>-0.1261062771081924</v>
+        <v>-0.1261003911495209</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>-1.194505095481873</v>
+        <v>-1.194508075714111</v>
       </c>
     </row>
     <row r="89" spans="1:6">
